--- a/server/Finaloutput.xlsx
+++ b/server/Finaloutput.xlsx
@@ -397,198 +397,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>092</v>
-      </c>
-      <c r="B1" t="str">
-        <v>085</v>
-      </c>
-      <c r="C1" t="str">
-        <v/>
-      </c>
-      <c r="D1" t="str">
-        <v>020</v>
-      </c>
-      <c r="E1" t="str">
-        <v>079</v>
-      </c>
-      <c r="F1" t="str">
-        <v>081</v>
-      </c>
-      <c r="G1" t="str">
-        <v/>
-      </c>
-      <c r="H1" t="str">
-        <v/>
-      </c>
-      <c r="I1" t="str">
-        <v/>
-      </c>
-      <c r="J1" t="str">
-        <v/>
-      </c>
-      <c r="K1" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>063</v>
-      </c>
-      <c r="B2" t="str">
-        <v>089</v>
-      </c>
-      <c r="C2" t="str">
-        <v/>
-      </c>
-      <c r="D2" t="str">
-        <v>020</v>
-      </c>
-      <c r="E2" t="str">
-        <v>078</v>
-      </c>
-      <c r="F2" t="str">
-        <v>089</v>
-      </c>
-      <c r="G2" t="str">
-        <v/>
-      </c>
-      <c r="H2" t="str">
-        <v/>
-      </c>
-      <c r="I2" t="str">
-        <v/>
-      </c>
-      <c r="J2" t="str">
-        <v/>
-      </c>
-      <c r="K2" t="str">
-        <v/>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>092</v>
-      </c>
-      <c r="B3" t="str">
-        <v>058</v>
-      </c>
-      <c r="C3" t="str">
-        <v/>
-      </c>
-      <c r="D3" t="str">
-        <v/>
-      </c>
-      <c r="E3" t="str">
-        <v/>
-      </c>
-      <c r="F3" t="str">
-        <v/>
-      </c>
-      <c r="G3" t="str">
-        <v/>
-      </c>
-      <c r="H3" t="str">
-        <v>048</v>
-      </c>
-      <c r="I3" t="str">
-        <v>071</v>
-      </c>
-      <c r="J3" t="str">
-        <v>079</v>
-      </c>
-      <c r="K3" t="str">
-        <v>072</v>
-      </c>
-      <c r="L3" t="str">
-        <v>0420</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>093</v>
-      </c>
-      <c r="B4" t="str">
-        <v>062</v>
-      </c>
-      <c r="C4" t="str">
-        <v/>
-      </c>
-      <c r="D4" t="str">
-        <v/>
-      </c>
-      <c r="E4" t="str">
-        <v/>
-      </c>
-      <c r="F4" t="str">
-        <v/>
-      </c>
-      <c r="G4" t="str">
-        <v/>
-      </c>
-      <c r="H4" t="str">
-        <v>066</v>
-      </c>
-      <c r="I4" t="str">
-        <v>064</v>
-      </c>
-      <c r="J4" t="str">
-        <v>077</v>
-      </c>
-      <c r="K4" t="str">
-        <v>059</v>
-      </c>
-      <c r="L4" t="str">
-        <v>0421</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>082</v>
-      </c>
-      <c r="B5" t="str">
-        <v>067</v>
-      </c>
-      <c r="C5" t="str">
-        <v/>
-      </c>
-      <c r="D5" t="str">
-        <v/>
-      </c>
-      <c r="E5" t="str">
-        <v/>
-      </c>
-      <c r="F5" t="str">
-        <v/>
-      </c>
-      <c r="G5" t="str">
-        <v/>
-      </c>
-      <c r="H5" t="str">
-        <v>068</v>
-      </c>
-      <c r="I5" t="str">
-        <v>071</v>
-      </c>
-      <c r="J5" t="str">
-        <v>073</v>
-      </c>
-      <c r="K5" t="str">
-        <v>048</v>
-      </c>
-      <c r="L5" t="str">
-        <v>0409</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/server/Finaloutput.xlsx
+++ b/server/Finaloutput.xlsx
@@ -397,13 +397,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Register No</v>
+      </c>
+      <c r="B1" t="str">
+        <v>DOB</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Lang</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Eng</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Bio</v>
+      </c>
+      <c r="F1" t="str">
+        <v>CS</v>
+      </c>
+      <c r="G1" t="str">
+        <v>Phy</v>
+      </c>
+      <c r="H1" t="str">
+        <v>Che</v>
+      </c>
+      <c r="I1" t="str">
+        <v>Maths</v>
+      </c>
+      <c r="J1" t="str">
+        <v>Eco</v>
+      </c>
+      <c r="K1" t="str">
+        <v>Comm</v>
+      </c>
+      <c r="L1" t="str">
+        <v>Acc</v>
+      </c>
+      <c r="M1" t="str">
+        <v>BM</v>
+      </c>
+      <c r="N1" t="str">
+        <v>Total</v>
+      </c>
+    </row>
+  </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:N1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/server/Finaloutput.xlsx
+++ b/server/Finaloutput.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -410,45 +410,257 @@
         <v>DOB</v>
       </c>
       <c r="C1" t="str">
-        <v>Lang</v>
+        <v>Tamil</v>
       </c>
       <c r="D1" t="str">
-        <v>Eng</v>
+        <v>English</v>
       </c>
       <c r="E1" t="str">
-        <v>Bio</v>
+        <v>Maths</v>
       </c>
       <c r="F1" t="str">
-        <v>CS</v>
+        <v>Science</v>
       </c>
       <c r="G1" t="str">
-        <v>Phy</v>
+        <v>Social</v>
       </c>
       <c r="H1" t="str">
-        <v>Che</v>
-      </c>
-      <c r="I1" t="str">
-        <v>Maths</v>
-      </c>
-      <c r="J1" t="str">
-        <v>Eco</v>
-      </c>
-      <c r="K1" t="str">
-        <v>Comm</v>
-      </c>
-      <c r="L1" t="str">
-        <v>Acc</v>
-      </c>
-      <c r="M1" t="str">
-        <v>BM</v>
-      </c>
-      <c r="N1" t="str">
         <v>Total</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>3809988</v>
+      </c>
+      <c r="B2" t="str">
+        <v>31/03/2009</v>
+      </c>
+      <c r="C2">
+        <v>91</v>
+      </c>
+      <c r="D2">
+        <v>82</v>
+      </c>
+      <c r="E2">
+        <v>98</v>
+      </c>
+      <c r="F2">
+        <v>92</v>
+      </c>
+      <c r="G2">
+        <v>80</v>
+      </c>
+      <c r="H2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>3809990</v>
+      </c>
+      <c r="B3" t="str">
+        <v>23/09/2008</v>
+      </c>
+      <c r="C3">
+        <v>83</v>
+      </c>
+      <c r="D3">
+        <v>91</v>
+      </c>
+      <c r="E3">
+        <v>79</v>
+      </c>
+      <c r="F3">
+        <v>77</v>
+      </c>
+      <c r="G3">
+        <v>69</v>
+      </c>
+      <c r="H3">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>3810000</v>
+      </c>
+      <c r="B4" t="str">
+        <v>21/10/2009</v>
+      </c>
+      <c r="C4">
+        <v>98</v>
+      </c>
+      <c r="D4">
+        <v>91</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
+      </c>
+      <c r="F4">
+        <v>98</v>
+      </c>
+      <c r="G4">
+        <v>99</v>
+      </c>
+      <c r="H4">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>3810004</v>
+      </c>
+      <c r="B5" t="str">
+        <v>17/03/2024</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Please check your Registration Number and DOB</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>3756987</v>
+      </c>
+      <c r="B6" t="str">
+        <v>09/09/2008</v>
+      </c>
+      <c r="C6">
+        <v>96</v>
+      </c>
+      <c r="D6">
+        <v>91</v>
+      </c>
+      <c r="E6">
+        <v>95</v>
+      </c>
+      <c r="F6">
+        <v>98</v>
+      </c>
+      <c r="G6">
+        <v>95</v>
+      </c>
+      <c r="H6">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>3789094</v>
+      </c>
+      <c r="B7" t="str">
+        <v>06/04/2009</v>
+      </c>
+      <c r="C7">
+        <v>80</v>
+      </c>
+      <c r="D7">
+        <v>86</v>
+      </c>
+      <c r="E7">
+        <v>71</v>
+      </c>
+      <c r="F7">
+        <v>74</v>
+      </c>
+      <c r="G7">
+        <v>82</v>
+      </c>
+      <c r="H7">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>3788342</v>
+      </c>
+      <c r="B8" t="str">
+        <v>23/10/2008</v>
+      </c>
+      <c r="C8">
+        <v>93</v>
+      </c>
+      <c r="D8">
+        <v>95</v>
+      </c>
+      <c r="E8">
+        <v>97</v>
+      </c>
+      <c r="F8">
+        <v>84</v>
+      </c>
+      <c r="G8">
+        <v>97</v>
+      </c>
+      <c r="H8">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>3788366</v>
+      </c>
+      <c r="B9" t="str">
+        <v>18/12/2008</v>
+      </c>
+      <c r="C9">
+        <v>81</v>
+      </c>
+      <c r="D9">
+        <v>84</v>
+      </c>
+      <c r="E9">
+        <v>83</v>
+      </c>
+      <c r="F9">
+        <v>90</v>
+      </c>
+      <c r="G9">
+        <v>98</v>
+      </c>
+      <c r="H9">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>3788356</v>
+      </c>
+      <c r="B10" t="str">
+        <v>20/04/2008</v>
+      </c>
+      <c r="C10">
+        <v>86</v>
+      </c>
+      <c r="D10">
+        <v>85</v>
+      </c>
+      <c r="E10">
+        <v>66</v>
+      </c>
+      <c r="F10">
+        <v>79</v>
+      </c>
+      <c r="G10">
+        <v>80</v>
+      </c>
+      <c r="H10">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>3645624</v>
+      </c>
+      <c r="B11" t="str">
+        <v>02/08/2008</v>
+      </c>
+      <c r="C11" t="str">
+        <v>Please check your Registration Number and DOB</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:N1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H11"/>
   </ignoredErrors>
 </worksheet>
 </file>